--- a/backtest_results.xlsx
+++ b/backtest_results.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.461633722812387</v>
+        <v>1.461633727370344</v>
       </c>
       <c r="C2" t="n">
         <v>5.585247754274357</v>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9964952520434666</v>
+        <v>0.9964952520431584</v>
       </c>
       <c r="C3" t="n">
         <v>1.124323554088416</v>
